--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -23080,13 +23080,13 @@
         <v>1603</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE197">
         <v>0</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="AG197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH197">
         <v>0</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="AL197">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="198" spans="1:38">
@@ -23163,10 +23163,10 @@
         <v>1603</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD198">
         <v>0</v>
@@ -23175,10 +23175,10 @@
         <v>0</v>
       </c>
       <c r="AF198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH198">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="199" spans="1:38">
@@ -23246,10 +23246,10 @@
         <v>1603</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD199">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="AF199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL199">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="200" spans="1:38">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -23080,13 +23080,13 @@
         <v>1603</v>
       </c>
       <c r="AB197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE197">
         <v>0</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="AG197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH197">
         <v>0</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="AL197">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:38">
@@ -23163,10 +23163,10 @@
         <v>1603</v>
       </c>
       <c r="AB198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD198">
         <v>0</v>
@@ -23175,10 +23175,10 @@
         <v>0</v>
       </c>
       <c r="AF198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH198">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:38">
@@ -23246,10 +23246,10 @@
         <v>1603</v>
       </c>
       <c r="AB199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD199">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="AF199">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG199">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL199">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:38">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -23080,10 +23080,10 @@
         <v>1603</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD197">
         <v>0</v>
@@ -23092,25 +23092,25 @@
         <v>0</v>
       </c>
       <c r="AF197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL197">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="198" spans="1:38">
@@ -23163,10 +23163,10 @@
         <v>1603</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD198">
         <v>0</v>
@@ -23175,10 +23175,10 @@
         <v>0</v>
       </c>
       <c r="AF198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH198">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="199" spans="1:38">
@@ -23246,13 +23246,13 @@
         <v>1603</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE199">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="AG199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH199">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="AL199">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="200" spans="1:38">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4B125-69F6-4755-83E1-363AC6F70E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -112,16 +106,16 @@
     <t>c2</t>
   </si>
   <si>
+    <t>l2</t>
+  </si>
+  <si>
     <t>c3</t>
   </si>
   <si>
+    <t>l3</t>
+  </si>
+  <si>
     <t>c4</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
   </si>
   <si>
     <t>l4</t>
@@ -4963,11 +4957,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5031,21 +5025,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5083,7 +5069,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5117,7 +5103,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5152,10 +5137,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5328,16 +5312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5429,16 +5411,16 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>34</v>
@@ -5447,7 +5429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5491,7 +5473,7 @@
         <v>1540</v>
       </c>
       <c r="V2" s="2">
-        <v>44998.826516203713</v>
+        <v>44998.82651620371</v>
       </c>
       <c r="Y2" t="s">
         <v>1601</v>
@@ -5524,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5580,7 +5562,7 @@
         <v>1541</v>
       </c>
       <c r="V3" s="2">
-        <v>45013.731631944444</v>
+        <v>45013.73163194444</v>
       </c>
       <c r="Y3" t="s">
         <v>1601</v>
@@ -5613,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -5669,7 +5651,7 @@
         <v>1542</v>
       </c>
       <c r="V4" s="2">
-        <v>45021.788078703707</v>
+        <v>45021.78807870371</v>
       </c>
       <c r="Y4" t="s">
         <v>1601</v>
@@ -5702,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -5746,7 +5728,7 @@
         <v>1543</v>
       </c>
       <c r="V5" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y5" t="s">
         <v>1601</v>
@@ -5779,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5835,7 +5817,7 @@
         <v>1543</v>
       </c>
       <c r="V6" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y6" t="s">
         <v>1601</v>
@@ -5868,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -5924,7 +5906,7 @@
         <v>1543</v>
       </c>
       <c r="V7" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y7" t="s">
         <v>1601</v>
@@ -5957,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -6013,7 +5995,7 @@
         <v>1543</v>
       </c>
       <c r="V8" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y8" t="s">
         <v>1601</v>
@@ -6046,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -6090,7 +6072,7 @@
         <v>1543</v>
       </c>
       <c r="V9" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y9" t="s">
         <v>1601</v>
@@ -6123,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -6179,7 +6161,7 @@
         <v>1543</v>
       </c>
       <c r="V10" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y10" t="s">
         <v>1601</v>
@@ -6212,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -6256,7 +6238,7 @@
         <v>1543</v>
       </c>
       <c r="V11" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y11" t="s">
         <v>1601</v>
@@ -6289,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -6333,7 +6315,7 @@
         <v>1543</v>
       </c>
       <c r="V12" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y12" t="s">
         <v>1601</v>
@@ -6366,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -6422,7 +6404,7 @@
         <v>1543</v>
       </c>
       <c r="V13" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y13" t="s">
         <v>1601</v>
@@ -6455,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -6499,7 +6481,7 @@
         <v>1543</v>
       </c>
       <c r="V14" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y14" t="s">
         <v>1601</v>
@@ -6532,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -6576,7 +6558,7 @@
         <v>1543</v>
       </c>
       <c r="V15" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="Y15" t="s">
         <v>1601</v>
@@ -6609,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6653,7 +6635,7 @@
         <v>1544</v>
       </c>
       <c r="V16" s="2">
-        <v>45027.659305555557</v>
+        <v>45027.65930555556</v>
       </c>
       <c r="Y16" t="s">
         <v>1601</v>
@@ -6686,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -6742,7 +6724,7 @@
         <v>1545</v>
       </c>
       <c r="V17" s="2">
-        <v>45028.798703703702</v>
+        <v>45028.7987037037</v>
       </c>
       <c r="Y17" t="s">
         <v>1601</v>
@@ -6775,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6831,7 +6813,7 @@
         <v>1546</v>
       </c>
       <c r="V18" s="2">
-        <v>45028.820057870369</v>
+        <v>45028.82005787037</v>
       </c>
       <c r="Y18" t="s">
         <v>1601</v>
@@ -6864,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -6920,7 +6902,7 @@
         <v>1546</v>
       </c>
       <c r="V19" s="2">
-        <v>45028.820057870369</v>
+        <v>45028.82005787037</v>
       </c>
       <c r="Y19" t="s">
         <v>1601</v>
@@ -6953,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -6997,7 +6979,7 @@
         <v>1546</v>
       </c>
       <c r="V20" s="2">
-        <v>45028.820057870369</v>
+        <v>45028.82005787037</v>
       </c>
       <c r="Y20" t="s">
         <v>1601</v>
@@ -7030,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -7074,7 +7056,7 @@
         <v>1547</v>
       </c>
       <c r="V21" s="2">
-        <v>45028.887245370373</v>
+        <v>45028.88724537037</v>
       </c>
       <c r="Y21" t="s">
         <v>1601</v>
@@ -7107,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -7151,7 +7133,7 @@
         <v>1547</v>
       </c>
       <c r="V22" s="2">
-        <v>45028.887245370373</v>
+        <v>45028.88724537037</v>
       </c>
       <c r="Y22" t="s">
         <v>1601</v>
@@ -7184,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -7228,7 +7210,7 @@
         <v>1547</v>
       </c>
       <c r="V23" s="2">
-        <v>45028.887245370373</v>
+        <v>45028.88724537037</v>
       </c>
       <c r="Y23" t="s">
         <v>1601</v>
@@ -7261,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -7317,7 +7299,7 @@
         <v>1548</v>
       </c>
       <c r="V24" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y24" t="s">
         <v>1601</v>
@@ -7350,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -7406,7 +7388,7 @@
         <v>1548</v>
       </c>
       <c r="V25" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y25" t="s">
         <v>1601</v>
@@ -7439,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -7495,7 +7477,7 @@
         <v>1548</v>
       </c>
       <c r="V26" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y26" t="s">
         <v>1601</v>
@@ -7528,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -7584,7 +7566,7 @@
         <v>1548</v>
       </c>
       <c r="V27" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y27" t="s">
         <v>1601</v>
@@ -7617,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -7673,7 +7655,7 @@
         <v>1548</v>
       </c>
       <c r="V28" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y28" t="s">
         <v>1601</v>
@@ -7706,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -7762,7 +7744,7 @@
         <v>1548</v>
       </c>
       <c r="V29" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y29" t="s">
         <v>1601</v>
@@ -7795,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -7851,7 +7833,7 @@
         <v>1548</v>
       </c>
       <c r="V30" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y30" t="s">
         <v>1601</v>
@@ -7884,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -7940,7 +7922,7 @@
         <v>1548</v>
       </c>
       <c r="V31" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y31" t="s">
         <v>1601</v>
@@ -7973,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -8029,7 +8011,7 @@
         <v>1548</v>
       </c>
       <c r="V32" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y32" t="s">
         <v>1601</v>
@@ -8062,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -8118,7 +8100,7 @@
         <v>1548</v>
       </c>
       <c r="V33" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y33" t="s">
         <v>1601</v>
@@ -8151,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -8207,7 +8189,7 @@
         <v>1548</v>
       </c>
       <c r="V34" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y34" t="s">
         <v>1601</v>
@@ -8240,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -8296,7 +8278,7 @@
         <v>1548</v>
       </c>
       <c r="V35" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y35" t="s">
         <v>1601</v>
@@ -8329,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -8385,7 +8367,7 @@
         <v>1548</v>
       </c>
       <c r="V36" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y36" t="s">
         <v>1601</v>
@@ -8418,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -8474,7 +8456,7 @@
         <v>1548</v>
       </c>
       <c r="V37" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y37" t="s">
         <v>1601</v>
@@ -8507,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -8563,7 +8545,7 @@
         <v>1548</v>
       </c>
       <c r="V38" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y38" t="s">
         <v>1601</v>
@@ -8596,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8652,7 +8634,7 @@
         <v>1548</v>
       </c>
       <c r="V39" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y39" t="s">
         <v>1601</v>
@@ -8685,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -8741,7 +8723,7 @@
         <v>1548</v>
       </c>
       <c r="V40" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y40" t="s">
         <v>1601</v>
@@ -8774,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -8830,7 +8812,7 @@
         <v>1548</v>
       </c>
       <c r="V41" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y41" t="s">
         <v>1601</v>
@@ -8863,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -8919,7 +8901,7 @@
         <v>1548</v>
       </c>
       <c r="V42" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y42" t="s">
         <v>1601</v>
@@ -8952,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -9008,7 +8990,7 @@
         <v>1548</v>
       </c>
       <c r="V43" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y43" t="s">
         <v>1601</v>
@@ -9041,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -9097,7 +9079,7 @@
         <v>1548</v>
       </c>
       <c r="V44" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y44" t="s">
         <v>1601</v>
@@ -9130,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -9186,7 +9168,7 @@
         <v>1548</v>
       </c>
       <c r="V45" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y45" t="s">
         <v>1601</v>
@@ -9219,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -9275,7 +9257,7 @@
         <v>1548</v>
       </c>
       <c r="V46" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y46" t="s">
         <v>1601</v>
@@ -9308,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -9364,7 +9346,7 @@
         <v>1548</v>
       </c>
       <c r="V47" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y47" t="s">
         <v>1601</v>
@@ -9397,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -9453,7 +9435,7 @@
         <v>1548</v>
       </c>
       <c r="V48" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y48" t="s">
         <v>1601</v>
@@ -9486,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -9542,7 +9524,7 @@
         <v>1548</v>
       </c>
       <c r="V49" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y49" t="s">
         <v>1601</v>
@@ -9575,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -9631,7 +9613,7 @@
         <v>1548</v>
       </c>
       <c r="V50" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y50" t="s">
         <v>1601</v>
@@ -9664,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -9720,7 +9702,7 @@
         <v>1548</v>
       </c>
       <c r="V51" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y51" t="s">
         <v>1601</v>
@@ -9753,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -9809,7 +9791,7 @@
         <v>1548</v>
       </c>
       <c r="V52" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y52" t="s">
         <v>1601</v>
@@ -9842,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -9898,7 +9880,7 @@
         <v>1548</v>
       </c>
       <c r="V53" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y53" t="s">
         <v>1601</v>
@@ -9931,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -9987,7 +9969,7 @@
         <v>1548</v>
       </c>
       <c r="V54" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y54" t="s">
         <v>1601</v>
@@ -10020,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -10076,7 +10058,7 @@
         <v>1548</v>
       </c>
       <c r="V55" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y55" t="s">
         <v>1601</v>
@@ -10109,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -10165,7 +10147,7 @@
         <v>1548</v>
       </c>
       <c r="V56" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y56" t="s">
         <v>1601</v>
@@ -10198,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -10254,7 +10236,7 @@
         <v>1548</v>
       </c>
       <c r="V57" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y57" t="s">
         <v>1601</v>
@@ -10287,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -10343,7 +10325,7 @@
         <v>1548</v>
       </c>
       <c r="V58" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y58" t="s">
         <v>1601</v>
@@ -10376,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -10432,7 +10414,7 @@
         <v>1548</v>
       </c>
       <c r="V59" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y59" t="s">
         <v>1601</v>
@@ -10465,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -10521,7 +10503,7 @@
         <v>1548</v>
       </c>
       <c r="V60" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y60" t="s">
         <v>1601</v>
@@ -10554,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -10598,7 +10580,7 @@
         <v>1548</v>
       </c>
       <c r="V61" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y61" t="s">
         <v>1601</v>
@@ -10631,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -10687,7 +10669,7 @@
         <v>1548</v>
       </c>
       <c r="V62" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y62" t="s">
         <v>1601</v>
@@ -10720,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -10776,7 +10758,7 @@
         <v>1548</v>
       </c>
       <c r="V63" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y63" t="s">
         <v>1601</v>
@@ -10809,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -10865,7 +10847,7 @@
         <v>1548</v>
       </c>
       <c r="V64" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y64" t="s">
         <v>1601</v>
@@ -10898,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -10954,7 +10936,7 @@
         <v>1548</v>
       </c>
       <c r="V65" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y65" t="s">
         <v>1601</v>
@@ -10987,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -11043,7 +11025,7 @@
         <v>1548</v>
       </c>
       <c r="V66" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y66" t="s">
         <v>1601</v>
@@ -11076,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -11132,7 +11114,7 @@
         <v>1548</v>
       </c>
       <c r="V67" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y67" t="s">
         <v>1601</v>
@@ -11165,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -11221,7 +11203,7 @@
         <v>1548</v>
       </c>
       <c r="V68" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y68" t="s">
         <v>1601</v>
@@ -11254,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -11310,7 +11292,7 @@
         <v>1548</v>
       </c>
       <c r="V69" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y69" t="s">
         <v>1601</v>
@@ -11343,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -11399,7 +11381,7 @@
         <v>1548</v>
       </c>
       <c r="V70" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y70" t="s">
         <v>1601</v>
@@ -11432,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -11488,7 +11470,7 @@
         <v>1548</v>
       </c>
       <c r="V71" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y71" t="s">
         <v>1601</v>
@@ -11521,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -11565,7 +11547,7 @@
         <v>1548</v>
       </c>
       <c r="V72" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y72" t="s">
         <v>1601</v>
@@ -11598,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -11654,7 +11636,7 @@
         <v>1548</v>
       </c>
       <c r="V73" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y73" t="s">
         <v>1601</v>
@@ -11687,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -11743,7 +11725,7 @@
         <v>1548</v>
       </c>
       <c r="V74" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y74" t="s">
         <v>1601</v>
@@ -11776,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -11832,7 +11814,7 @@
         <v>1548</v>
       </c>
       <c r="V75" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y75" t="s">
         <v>1601</v>
@@ -11865,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -11921,7 +11903,7 @@
         <v>1548</v>
       </c>
       <c r="V76" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y76" t="s">
         <v>1601</v>
@@ -11954,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -12010,7 +11992,7 @@
         <v>1548</v>
       </c>
       <c r="V77" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y77" t="s">
         <v>1601</v>
@@ -12043,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -12099,7 +12081,7 @@
         <v>1548</v>
       </c>
       <c r="V78" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="Y78" t="s">
         <v>1601</v>
@@ -12132,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -12176,7 +12158,7 @@
         <v>1549</v>
       </c>
       <c r="V79" s="2">
-        <v>45029.811898148153</v>
+        <v>45029.81189814815</v>
       </c>
       <c r="Y79" t="s">
         <v>1601</v>
@@ -12209,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -12265,7 +12247,7 @@
         <v>1549</v>
       </c>
       <c r="V80" s="2">
-        <v>45029.811898148153</v>
+        <v>45029.81189814815</v>
       </c>
       <c r="Y80" t="s">
         <v>1601</v>
@@ -12298,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -12342,7 +12324,7 @@
         <v>1550</v>
       </c>
       <c r="V81" s="2">
-        <v>45029.854571759257</v>
+        <v>45029.85457175926</v>
       </c>
       <c r="Y81" t="s">
         <v>1602</v>
@@ -12375,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -12419,7 +12401,7 @@
         <v>1550</v>
       </c>
       <c r="V82" s="2">
-        <v>45029.854571759257</v>
+        <v>45029.85457175926</v>
       </c>
       <c r="Y82" t="s">
         <v>1602</v>
@@ -12452,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -12496,7 +12478,7 @@
         <v>1550</v>
       </c>
       <c r="V83" s="2">
-        <v>45029.854571759257</v>
+        <v>45029.85457175926</v>
       </c>
       <c r="Y83" t="s">
         <v>1602</v>
@@ -12529,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -12585,7 +12567,7 @@
         <v>1551</v>
       </c>
       <c r="V84" s="2">
-        <v>45029.863969907397</v>
+        <v>45029.8639699074</v>
       </c>
       <c r="Y84" t="s">
         <v>1601</v>
@@ -12618,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -12662,7 +12644,7 @@
         <v>1551</v>
       </c>
       <c r="V85" s="2">
-        <v>45029.863969907397</v>
+        <v>45029.8639699074</v>
       </c>
       <c r="Y85" t="s">
         <v>1601</v>
@@ -12695,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -12739,7 +12721,7 @@
         <v>1551</v>
       </c>
       <c r="V86" s="2">
-        <v>45029.863969907397</v>
+        <v>45029.8639699074</v>
       </c>
       <c r="Y86" t="s">
         <v>1601</v>
@@ -12772,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36">
       <c r="A87" t="s">
         <v>121</v>
       </c>
@@ -12861,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -12950,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -13039,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -13116,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -13205,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -13282,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -13359,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36">
       <c r="A94" t="s">
         <v>128</v>
       </c>
@@ -13436,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36">
       <c r="A95" t="s">
         <v>129</v>
       </c>
@@ -13513,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -13590,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -13646,7 +13628,7 @@
         <v>1553</v>
       </c>
       <c r="V97" s="2">
-        <v>45030.711909722217</v>
+        <v>45030.71190972222</v>
       </c>
       <c r="Y97" t="s">
         <v>1601</v>
@@ -13679,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -13723,7 +13705,7 @@
         <v>1553</v>
       </c>
       <c r="V98" s="2">
-        <v>45030.711909722217</v>
+        <v>45030.71190972222</v>
       </c>
       <c r="Y98" t="s">
         <v>1601</v>
@@ -13756,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36">
       <c r="A99" t="s">
         <v>133</v>
       </c>
@@ -13800,7 +13782,7 @@
         <v>1554</v>
       </c>
       <c r="V99" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="Y99" t="s">
         <v>1601</v>
@@ -13833,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -13877,7 +13859,7 @@
         <v>1554</v>
       </c>
       <c r="V100" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="Y100" t="s">
         <v>1601</v>
@@ -13910,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -13966,7 +13948,7 @@
         <v>1554</v>
       </c>
       <c r="V101" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="Y101" t="s">
         <v>1601</v>
@@ -13999,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36">
       <c r="A102" t="s">
         <v>136</v>
       </c>
@@ -14043,7 +14025,7 @@
         <v>1554</v>
       </c>
       <c r="V102" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="Y102" t="s">
         <v>1601</v>
@@ -14076,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -14120,7 +14102,7 @@
         <v>1554</v>
       </c>
       <c r="V103" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="Y103" t="s">
         <v>1601</v>
@@ -14153,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36">
       <c r="A104" t="s">
         <v>138</v>
       </c>
@@ -14209,7 +14191,7 @@
         <v>1554</v>
       </c>
       <c r="V104" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="Y104" t="s">
         <v>1601</v>
@@ -14242,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36">
       <c r="A105" t="s">
         <v>139</v>
       </c>
@@ -14298,7 +14280,7 @@
         <v>1555</v>
       </c>
       <c r="V105" s="2">
-        <v>45030.793912037043</v>
+        <v>45030.79391203704</v>
       </c>
       <c r="Y105" t="s">
         <v>1601</v>
@@ -14331,7 +14313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36">
       <c r="A106" t="s">
         <v>140</v>
       </c>
@@ -14375,7 +14357,7 @@
         <v>1556</v>
       </c>
       <c r="V106" s="2">
-        <v>45030.943865740737</v>
+        <v>45030.94386574074</v>
       </c>
       <c r="Y106" t="s">
         <v>1601</v>
@@ -14408,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -14452,7 +14434,7 @@
         <v>1556</v>
       </c>
       <c r="V107" s="2">
-        <v>45030.943865740737</v>
+        <v>45030.94386574074</v>
       </c>
       <c r="Y107" t="s">
         <v>1601</v>
@@ -14485,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -14529,7 +14511,7 @@
         <v>1556</v>
       </c>
       <c r="V108" s="2">
-        <v>45030.943865740737</v>
+        <v>45030.94386574074</v>
       </c>
       <c r="Y108" t="s">
         <v>1601</v>
@@ -14562,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36">
       <c r="A109" t="s">
         <v>143</v>
       </c>
@@ -14618,7 +14600,7 @@
         <v>1556</v>
       </c>
       <c r="V109" s="2">
-        <v>45030.943865740737</v>
+        <v>45030.94386574074</v>
       </c>
       <c r="Y109" t="s">
         <v>1601</v>
@@ -14651,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -14695,7 +14677,7 @@
         <v>1557</v>
       </c>
       <c r="V110" s="2">
-        <v>45030.958981481483</v>
+        <v>45030.95898148148</v>
       </c>
       <c r="Y110" t="s">
         <v>1601</v>
@@ -14728,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36">
       <c r="A111" t="s">
         <v>145</v>
       </c>
@@ -14772,7 +14754,7 @@
         <v>1557</v>
       </c>
       <c r="V111" s="2">
-        <v>45030.958981481483</v>
+        <v>45030.95898148148</v>
       </c>
       <c r="Y111" t="s">
         <v>1601</v>
@@ -14805,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36">
       <c r="A112" t="s">
         <v>146</v>
       </c>
@@ -14849,7 +14831,7 @@
         <v>1557</v>
       </c>
       <c r="V112" s="2">
-        <v>45030.958981481483</v>
+        <v>45030.95898148148</v>
       </c>
       <c r="Y112" t="s">
         <v>1601</v>
@@ -14882,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -14926,7 +14908,7 @@
         <v>1557</v>
       </c>
       <c r="V113" s="2">
-        <v>45030.958981481483</v>
+        <v>45030.95898148148</v>
       </c>
       <c r="Y113" t="s">
         <v>1601</v>
@@ -14959,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36">
       <c r="A114" t="s">
         <v>148</v>
       </c>
@@ -15015,7 +14997,7 @@
         <v>1558</v>
       </c>
       <c r="V114" s="2">
-        <v>45030.976238425923</v>
+        <v>45030.97623842592</v>
       </c>
       <c r="Y114" t="s">
         <v>1601</v>
@@ -15048,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36">
       <c r="A115" t="s">
         <v>149</v>
       </c>
@@ -15104,7 +15086,7 @@
         <v>1559</v>
       </c>
       <c r="V115" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y115" t="s">
         <v>1601</v>
@@ -15137,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36">
       <c r="A116" t="s">
         <v>150</v>
       </c>
@@ -15193,7 +15175,7 @@
         <v>1559</v>
       </c>
       <c r="V116" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y116" t="s">
         <v>1601</v>
@@ -15226,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36">
       <c r="A117" t="s">
         <v>151</v>
       </c>
@@ -15282,7 +15264,7 @@
         <v>1559</v>
       </c>
       <c r="V117" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y117" t="s">
         <v>1601</v>
@@ -15315,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -15371,7 +15353,7 @@
         <v>1559</v>
       </c>
       <c r="V118" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y118" t="s">
         <v>1601</v>
@@ -15404,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -15448,7 +15430,7 @@
         <v>1559</v>
       </c>
       <c r="V119" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y119" t="s">
         <v>1601</v>
@@ -15481,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36">
       <c r="A120" t="s">
         <v>154</v>
       </c>
@@ -15537,7 +15519,7 @@
         <v>1559</v>
       </c>
       <c r="V120" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y120" t="s">
         <v>1601</v>
@@ -15570,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -15614,7 +15596,7 @@
         <v>1559</v>
       </c>
       <c r="V121" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y121" t="s">
         <v>1601</v>
@@ -15647,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36">
       <c r="A122" t="s">
         <v>156</v>
       </c>
@@ -15703,7 +15685,7 @@
         <v>1559</v>
       </c>
       <c r="V122" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y122" t="s">
         <v>1601</v>
@@ -15736,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36">
       <c r="A123" t="s">
         <v>157</v>
       </c>
@@ -15780,7 +15762,7 @@
         <v>1559</v>
       </c>
       <c r="V123" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="Y123" t="s">
         <v>1601</v>
@@ -15813,7 +15795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36">
       <c r="A124" t="s">
         <v>158</v>
       </c>
@@ -15857,7 +15839,7 @@
         <v>1560</v>
       </c>
       <c r="V124" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="Y124" t="s">
         <v>1601</v>
@@ -15890,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36">
       <c r="A125" t="s">
         <v>159</v>
       </c>
@@ -15934,7 +15916,7 @@
         <v>1560</v>
       </c>
       <c r="V125" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="Y125" t="s">
         <v>1601</v>
@@ -15967,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -16011,7 +15993,7 @@
         <v>1560</v>
       </c>
       <c r="V126" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="Y126" t="s">
         <v>1601</v>
@@ -16044,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36">
       <c r="A127" t="s">
         <v>161</v>
       </c>
@@ -16100,7 +16082,7 @@
         <v>1561</v>
       </c>
       <c r="V127" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="Y127" t="s">
         <v>1602</v>
@@ -16133,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36">
       <c r="A128" t="s">
         <v>162</v>
       </c>
@@ -16189,7 +16171,7 @@
         <v>1561</v>
       </c>
       <c r="V128" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="Y128" t="s">
         <v>1602</v>
@@ -16222,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36">
       <c r="A129" t="s">
         <v>163</v>
       </c>
@@ -16278,7 +16260,7 @@
         <v>1561</v>
       </c>
       <c r="V129" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="Y129" t="s">
         <v>1602</v>
@@ -16311,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -16367,7 +16349,7 @@
         <v>1561</v>
       </c>
       <c r="V130" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="Y130" t="s">
         <v>1602</v>
@@ -16400,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -16456,7 +16438,7 @@
         <v>1562</v>
       </c>
       <c r="V131" s="2">
-        <v>45033.799467592587</v>
+        <v>45033.79946759259</v>
       </c>
       <c r="Y131" t="s">
         <v>1601</v>
@@ -16489,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -16545,7 +16527,7 @@
         <v>1562</v>
       </c>
       <c r="V132" s="2">
-        <v>45033.799467592587</v>
+        <v>45033.79946759259</v>
       </c>
       <c r="Y132" t="s">
         <v>1601</v>
@@ -16578,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -16634,7 +16616,7 @@
         <v>1562</v>
       </c>
       <c r="V133" s="2">
-        <v>45033.799467592587</v>
+        <v>45033.79946759259</v>
       </c>
       <c r="Y133" t="s">
         <v>1601</v>
@@ -16667,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -16723,7 +16705,7 @@
         <v>1563</v>
       </c>
       <c r="V134" s="2">
-        <v>45033.886354166672</v>
+        <v>45033.88635416667</v>
       </c>
       <c r="Y134" t="s">
         <v>1601</v>
@@ -16756,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -16812,7 +16794,7 @@
         <v>1564</v>
       </c>
       <c r="V135" s="2">
-        <v>45034.645821759259</v>
+        <v>45034.64582175926</v>
       </c>
       <c r="Y135" t="s">
         <v>1601</v>
@@ -16845,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -16901,7 +16883,7 @@
         <v>1564</v>
       </c>
       <c r="V136" s="2">
-        <v>45034.645821759259</v>
+        <v>45034.64582175926</v>
       </c>
       <c r="Y136" t="s">
         <v>1601</v>
@@ -16934,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -17011,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36">
       <c r="A138" t="s">
         <v>172</v>
       </c>
@@ -17088,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -17177,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -17266,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36">
       <c r="A141" t="s">
         <v>175</v>
       </c>
@@ -17355,7 +17337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36">
       <c r="A142" t="s">
         <v>176</v>
       </c>
@@ -17411,7 +17393,7 @@
         <v>1566</v>
       </c>
       <c r="V142" s="2">
-        <v>45034.895462962973</v>
+        <v>45034.89546296297</v>
       </c>
       <c r="Y142" t="s">
         <v>1601</v>
@@ -17444,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36">
       <c r="A143" t="s">
         <v>177</v>
       </c>
@@ -17488,7 +17470,7 @@
         <v>1567</v>
       </c>
       <c r="V143" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y143" t="s">
         <v>1601</v>
@@ -17521,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36">
       <c r="A144" t="s">
         <v>178</v>
       </c>
@@ -17565,7 +17547,7 @@
         <v>1567</v>
       </c>
       <c r="V144" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y144" t="s">
         <v>1601</v>
@@ -17598,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36">
       <c r="A145" t="s">
         <v>179</v>
       </c>
@@ -17642,7 +17624,7 @@
         <v>1567</v>
       </c>
       <c r="V145" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y145" t="s">
         <v>1601</v>
@@ -17675,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36">
       <c r="A146" t="s">
         <v>180</v>
       </c>
@@ -17719,7 +17701,7 @@
         <v>1567</v>
       </c>
       <c r="V146" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y146" t="s">
         <v>1601</v>
@@ -17752,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36">
       <c r="A147" t="s">
         <v>181</v>
       </c>
@@ -17796,7 +17778,7 @@
         <v>1567</v>
       </c>
       <c r="V147" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y147" t="s">
         <v>1601</v>
@@ -17829,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36">
       <c r="A148" t="s">
         <v>182</v>
       </c>
@@ -17873,7 +17855,7 @@
         <v>1567</v>
       </c>
       <c r="V148" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y148" t="s">
         <v>1601</v>
@@ -17906,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36">
       <c r="A149" t="s">
         <v>183</v>
       </c>
@@ -17950,7 +17932,7 @@
         <v>1567</v>
       </c>
       <c r="V149" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y149" t="s">
         <v>1601</v>
@@ -17983,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -18027,7 +18009,7 @@
         <v>1567</v>
       </c>
       <c r="V150" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y150" t="s">
         <v>1601</v>
@@ -18060,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36">
       <c r="A151" t="s">
         <v>185</v>
       </c>
@@ -18116,7 +18098,7 @@
         <v>1567</v>
       </c>
       <c r="V151" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y151" t="s">
         <v>1601</v>
@@ -18149,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36">
       <c r="A152" t="s">
         <v>186</v>
       </c>
@@ -18193,7 +18175,7 @@
         <v>1567</v>
       </c>
       <c r="V152" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y152" t="s">
         <v>1601</v>
@@ -18226,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -18270,7 +18252,7 @@
         <v>1567</v>
       </c>
       <c r="V153" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y153" t="s">
         <v>1601</v>
@@ -18303,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36">
       <c r="A154" t="s">
         <v>188</v>
       </c>
@@ -18347,7 +18329,7 @@
         <v>1567</v>
       </c>
       <c r="V154" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y154" t="s">
         <v>1601</v>
@@ -18380,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36">
       <c r="A155" t="s">
         <v>189</v>
       </c>
@@ -18424,7 +18406,7 @@
         <v>1567</v>
       </c>
       <c r="V155" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y155" t="s">
         <v>1601</v>
@@ -18457,7 +18439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36">
       <c r="A156" t="s">
         <v>190</v>
       </c>
@@ -18513,7 +18495,7 @@
         <v>1567</v>
       </c>
       <c r="V156" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y156" t="s">
         <v>1601</v>
@@ -18546,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36">
       <c r="A157" t="s">
         <v>191</v>
       </c>
@@ -18590,7 +18572,7 @@
         <v>1567</v>
       </c>
       <c r="V157" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y157" t="s">
         <v>1601</v>
@@ -18623,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36">
       <c r="A158" t="s">
         <v>192</v>
       </c>
@@ -18667,7 +18649,7 @@
         <v>1567</v>
       </c>
       <c r="V158" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y158" t="s">
         <v>1601</v>
@@ -18700,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36">
       <c r="A159" t="s">
         <v>193</v>
       </c>
@@ -18744,7 +18726,7 @@
         <v>1567</v>
       </c>
       <c r="V159" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y159" t="s">
         <v>1601</v>
@@ -18777,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36">
       <c r="A160" t="s">
         <v>194</v>
       </c>
@@ -18821,7 +18803,7 @@
         <v>1567</v>
       </c>
       <c r="V160" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="Y160" t="s">
         <v>1601</v>
@@ -18854,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36">
       <c r="A161" t="s">
         <v>195</v>
       </c>
@@ -18898,7 +18880,7 @@
         <v>1568</v>
       </c>
       <c r="V161" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y161" t="s">
         <v>1601</v>
@@ -18931,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36">
       <c r="A162" t="s">
         <v>196</v>
       </c>
@@ -18987,7 +18969,7 @@
         <v>1568</v>
       </c>
       <c r="V162" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y162" t="s">
         <v>1601</v>
@@ -19020,7 +19002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36">
       <c r="A163" t="s">
         <v>197</v>
       </c>
@@ -19064,7 +19046,7 @@
         <v>1568</v>
       </c>
       <c r="V163" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y163" t="s">
         <v>1601</v>
@@ -19097,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36">
       <c r="A164" t="s">
         <v>198</v>
       </c>
@@ -19141,7 +19123,7 @@
         <v>1568</v>
       </c>
       <c r="V164" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y164" t="s">
         <v>1601</v>
@@ -19174,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36">
       <c r="A165" t="s">
         <v>199</v>
       </c>
@@ -19218,7 +19200,7 @@
         <v>1568</v>
       </c>
       <c r="V165" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y165" t="s">
         <v>1601</v>
@@ -19251,7 +19233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36">
       <c r="A166" t="s">
         <v>200</v>
       </c>
@@ -19295,7 +19277,7 @@
         <v>1568</v>
       </c>
       <c r="V166" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y166" t="s">
         <v>1601</v>
@@ -19328,7 +19310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36">
       <c r="A167" t="s">
         <v>201</v>
       </c>
@@ -19372,7 +19354,7 @@
         <v>1568</v>
       </c>
       <c r="V167" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y167" t="s">
         <v>1601</v>
@@ -19405,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -19449,7 +19431,7 @@
         <v>1568</v>
       </c>
       <c r="V168" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y168" t="s">
         <v>1601</v>
@@ -19482,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36">
       <c r="A169" t="s">
         <v>203</v>
       </c>
@@ -19526,7 +19508,7 @@
         <v>1568</v>
       </c>
       <c r="V169" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y169" t="s">
         <v>1601</v>
@@ -19559,7 +19541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36">
       <c r="A170" t="s">
         <v>204</v>
       </c>
@@ -19603,7 +19585,7 @@
         <v>1568</v>
       </c>
       <c r="V170" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y170" t="s">
         <v>1601</v>
@@ -19636,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36">
       <c r="A171" t="s">
         <v>205</v>
       </c>
@@ -19680,7 +19662,7 @@
         <v>1568</v>
       </c>
       <c r="V171" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y171" t="s">
         <v>1601</v>
@@ -19713,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36">
       <c r="A172" t="s">
         <v>206</v>
       </c>
@@ -19757,7 +19739,7 @@
         <v>1568</v>
       </c>
       <c r="V172" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="Y172" t="s">
         <v>1601</v>
@@ -19790,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36">
       <c r="A173" t="s">
         <v>207</v>
       </c>
@@ -19846,7 +19828,7 @@
         <v>1569</v>
       </c>
       <c r="V173" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y173" t="s">
         <v>1601</v>
@@ -19879,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36">
       <c r="A174" t="s">
         <v>208</v>
       </c>
@@ -19935,7 +19917,7 @@
         <v>1569</v>
       </c>
       <c r="V174" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y174" t="s">
         <v>1601</v>
@@ -19968,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -20024,7 +20006,7 @@
         <v>1569</v>
       </c>
       <c r="V175" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y175" t="s">
         <v>1601</v>
@@ -20057,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -20113,7 +20095,7 @@
         <v>1569</v>
       </c>
       <c r="V176" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y176" t="s">
         <v>1601</v>
@@ -20146,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36">
       <c r="A177" t="s">
         <v>211</v>
       </c>
@@ -20202,7 +20184,7 @@
         <v>1569</v>
       </c>
       <c r="V177" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y177" t="s">
         <v>1601</v>
@@ -20235,7 +20217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36">
       <c r="A178" t="s">
         <v>212</v>
       </c>
@@ -20291,7 +20273,7 @@
         <v>1569</v>
       </c>
       <c r="V178" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y178" t="s">
         <v>1601</v>
@@ -20324,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -20380,7 +20362,7 @@
         <v>1569</v>
       </c>
       <c r="V179" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="Y179" t="s">
         <v>1601</v>
@@ -20413,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36">
       <c r="A180" t="s">
         <v>214</v>
       </c>
@@ -20469,7 +20451,7 @@
         <v>1570</v>
       </c>
       <c r="V180" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y180" t="s">
         <v>1601</v>
@@ -20502,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36">
       <c r="A181" t="s">
         <v>215</v>
       </c>
@@ -20546,7 +20528,7 @@
         <v>1570</v>
       </c>
       <c r="V181" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y181" t="s">
         <v>1601</v>
@@ -20579,7 +20561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -20635,7 +20617,7 @@
         <v>1570</v>
       </c>
       <c r="V182" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y182" t="s">
         <v>1601</v>
@@ -20668,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36">
       <c r="A183" t="s">
         <v>217</v>
       </c>
@@ -20724,7 +20706,7 @@
         <v>1570</v>
       </c>
       <c r="V183" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y183" t="s">
         <v>1601</v>
@@ -20757,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36">
       <c r="A184" t="s">
         <v>218</v>
       </c>
@@ -20813,7 +20795,7 @@
         <v>1570</v>
       </c>
       <c r="V184" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y184" t="s">
         <v>1601</v>
@@ -20846,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36">
       <c r="A185" t="s">
         <v>219</v>
       </c>
@@ -20902,7 +20884,7 @@
         <v>1570</v>
       </c>
       <c r="V185" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y185" t="s">
         <v>1601</v>
@@ -20935,7 +20917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36">
       <c r="A186" t="s">
         <v>220</v>
       </c>
@@ -20991,7 +20973,7 @@
         <v>1570</v>
       </c>
       <c r="V186" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y186" t="s">
         <v>1601</v>
@@ -21024,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36">
       <c r="A187" t="s">
         <v>221</v>
       </c>
@@ -21068,7 +21050,7 @@
         <v>1570</v>
       </c>
       <c r="V187" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y187" t="s">
         <v>1601</v>
@@ -21101,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36">
       <c r="A188" t="s">
         <v>222</v>
       </c>
@@ -21157,7 +21139,7 @@
         <v>1570</v>
       </c>
       <c r="V188" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y188" t="s">
         <v>1601</v>
@@ -21190,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36">
       <c r="A189" t="s">
         <v>223</v>
       </c>
@@ -21246,7 +21228,7 @@
         <v>1570</v>
       </c>
       <c r="V189" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y189" t="s">
         <v>1601</v>
@@ -21279,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36">
       <c r="A190" t="s">
         <v>224</v>
       </c>
@@ -21335,7 +21317,7 @@
         <v>1570</v>
       </c>
       <c r="V190" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y190" t="s">
         <v>1601</v>
@@ -21368,7 +21350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36">
       <c r="A191" t="s">
         <v>225</v>
       </c>
@@ -21424,7 +21406,7 @@
         <v>1570</v>
       </c>
       <c r="V191" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y191" t="s">
         <v>1601</v>
@@ -21457,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36">
       <c r="A192" t="s">
         <v>226</v>
       </c>
@@ -21513,7 +21495,7 @@
         <v>1570</v>
       </c>
       <c r="V192" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="Y192" t="s">
         <v>1601</v>
@@ -21546,7 +21528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36">
       <c r="A193" t="s">
         <v>227</v>
       </c>
@@ -21590,7 +21572,7 @@
         <v>1571</v>
       </c>
       <c r="V193" s="2">
-        <v>45035.836608796293</v>
+        <v>45035.83660879629</v>
       </c>
       <c r="Y193" t="s">
         <v>1601</v>
@@ -21623,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36">
       <c r="A194" t="s">
         <v>228</v>
       </c>
@@ -21667,7 +21649,7 @@
         <v>1571</v>
       </c>
       <c r="V194" s="2">
-        <v>45035.836608796293</v>
+        <v>45035.83660879629</v>
       </c>
       <c r="Y194" t="s">
         <v>1601</v>
@@ -21700,7 +21682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36">
       <c r="A195" t="s">
         <v>229</v>
       </c>
@@ -21744,7 +21726,7 @@
         <v>1571</v>
       </c>
       <c r="V195" s="2">
-        <v>45035.836608796293</v>
+        <v>45035.83660879629</v>
       </c>
       <c r="Y195" t="s">
         <v>1601</v>
@@ -21777,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36">
       <c r="A196" t="s">
         <v>230</v>
       </c>
@@ -21821,7 +21803,7 @@
         <v>1571</v>
       </c>
       <c r="V196" s="2">
-        <v>45035.836608796293</v>
+        <v>45035.83660879629</v>
       </c>
       <c r="Y196" t="s">
         <v>1601</v>
@@ -21854,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36">
       <c r="A197" t="s">
         <v>231</v>
       </c>
@@ -21910,7 +21892,7 @@
         <v>1572</v>
       </c>
       <c r="V197" s="2">
-        <v>45040.917164351849</v>
+        <v>45040.91716435185</v>
       </c>
       <c r="Y197" t="s">
         <v>1601</v>
@@ -21940,10 +21922,10 @@
         <v>1</v>
       </c>
       <c r="AJ197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36">
       <c r="A198" t="s">
         <v>232</v>
       </c>
@@ -21987,7 +21969,7 @@
         <v>1572</v>
       </c>
       <c r="V198" s="2">
-        <v>45040.917164351849</v>
+        <v>45040.91716435185</v>
       </c>
       <c r="Y198" t="s">
         <v>1601</v>
@@ -22017,10 +21999,10 @@
         <v>0</v>
       </c>
       <c r="AJ198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36">
       <c r="A199" t="s">
         <v>233</v>
       </c>
@@ -22064,7 +22046,7 @@
         <v>1572</v>
       </c>
       <c r="V199" s="2">
-        <v>45040.917164351849</v>
+        <v>45040.91716435185</v>
       </c>
       <c r="Y199" t="s">
         <v>1601</v>
@@ -22097,7 +22079,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36">
       <c r="A200" t="s">
         <v>234</v>
       </c>
@@ -22141,7 +22123,7 @@
         <v>1573</v>
       </c>
       <c r="V200" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y200" t="s">
         <v>1601</v>
@@ -22174,7 +22156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36">
       <c r="A201" t="s">
         <v>235</v>
       </c>
@@ -22218,7 +22200,7 @@
         <v>1573</v>
       </c>
       <c r="V201" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y201" t="s">
         <v>1601</v>
@@ -22251,7 +22233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36">
       <c r="A202" t="s">
         <v>236</v>
       </c>
@@ -22295,7 +22277,7 @@
         <v>1573</v>
       </c>
       <c r="V202" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y202" t="s">
         <v>1601</v>
@@ -22328,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36">
       <c r="A203" t="s">
         <v>237</v>
       </c>
@@ -22372,7 +22354,7 @@
         <v>1573</v>
       </c>
       <c r="V203" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y203" t="s">
         <v>1601</v>
@@ -22405,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36">
       <c r="A204" t="s">
         <v>238</v>
       </c>
@@ -22449,7 +22431,7 @@
         <v>1573</v>
       </c>
       <c r="V204" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y204" t="s">
         <v>1601</v>
@@ -22482,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36">
       <c r="A205" t="s">
         <v>239</v>
       </c>
@@ -22526,7 +22508,7 @@
         <v>1573</v>
       </c>
       <c r="V205" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y205" t="s">
         <v>1601</v>
@@ -22559,7 +22541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36">
       <c r="A206" t="s">
         <v>240</v>
       </c>
@@ -22603,7 +22585,7 @@
         <v>1573</v>
       </c>
       <c r="V206" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y206" t="s">
         <v>1601</v>
@@ -22636,7 +22618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36">
       <c r="A207" t="s">
         <v>241</v>
       </c>
@@ -22680,7 +22662,7 @@
         <v>1573</v>
       </c>
       <c r="V207" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y207" t="s">
         <v>1601</v>
@@ -22713,7 +22695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36">
       <c r="A208" t="s">
         <v>242</v>
       </c>
@@ -22757,7 +22739,7 @@
         <v>1573</v>
       </c>
       <c r="V208" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y208" t="s">
         <v>1601</v>
@@ -22790,7 +22772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36">
       <c r="A209" t="s">
         <v>243</v>
       </c>
@@ -22834,7 +22816,7 @@
         <v>1573</v>
       </c>
       <c r="V209" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y209" t="s">
         <v>1601</v>
@@ -22867,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36">
       <c r="A210" t="s">
         <v>244</v>
       </c>
@@ -22911,7 +22893,7 @@
         <v>1573</v>
       </c>
       <c r="V210" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y210" t="s">
         <v>1601</v>
@@ -22944,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36">
       <c r="A211" t="s">
         <v>245</v>
       </c>
@@ -22988,7 +22970,7 @@
         <v>1573</v>
       </c>
       <c r="V211" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y211" t="s">
         <v>1601</v>
@@ -23021,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36">
       <c r="A212" t="s">
         <v>246</v>
       </c>
@@ -23065,7 +23047,7 @@
         <v>1573</v>
       </c>
       <c r="V212" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="Y212" t="s">
         <v>1601</v>
@@ -23098,7 +23080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36">
       <c r="A213" t="s">
         <v>247</v>
       </c>
@@ -23142,7 +23124,7 @@
         <v>1574</v>
       </c>
       <c r="V213" s="2">
-        <v>45041.887627314813</v>
+        <v>45041.88762731481</v>
       </c>
       <c r="Y213" t="s">
         <v>1601</v>
@@ -23175,7 +23157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36">
       <c r="A214" t="s">
         <v>248</v>
       </c>
@@ -23219,7 +23201,7 @@
         <v>1574</v>
       </c>
       <c r="V214" s="2">
-        <v>45041.887627314813</v>
+        <v>45041.88762731481</v>
       </c>
       <c r="Y214" t="s">
         <v>1601</v>
@@ -23252,7 +23234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36">
       <c r="A215" t="s">
         <v>249</v>
       </c>
@@ -23308,7 +23290,7 @@
         <v>1574</v>
       </c>
       <c r="V215" s="2">
-        <v>45041.887627314813</v>
+        <v>45041.88762731481</v>
       </c>
       <c r="Y215" t="s">
         <v>1601</v>
@@ -23341,7 +23323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36">
       <c r="A216" t="s">
         <v>250</v>
       </c>
@@ -23397,7 +23379,7 @@
         <v>1574</v>
       </c>
       <c r="V216" s="2">
-        <v>45041.887627314813</v>
+        <v>45041.88762731481</v>
       </c>
       <c r="Y216" t="s">
         <v>1601</v>
@@ -23430,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -23474,7 +23456,7 @@
         <v>1574</v>
       </c>
       <c r="V217" s="2">
-        <v>45041.887627314813</v>
+        <v>45041.88762731481</v>
       </c>
       <c r="Y217" t="s">
         <v>1601</v>
@@ -23507,7 +23489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36">
       <c r="A218" t="s">
         <v>252</v>
       </c>
@@ -23551,7 +23533,7 @@
         <v>1575</v>
       </c>
       <c r="V218" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y218" t="s">
         <v>1601</v>
@@ -23584,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36">
       <c r="A219" t="s">
         <v>253</v>
       </c>
@@ -23640,7 +23622,7 @@
         <v>1575</v>
       </c>
       <c r="V219" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y219" t="s">
         <v>1601</v>
@@ -23673,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36">
       <c r="A220" t="s">
         <v>254</v>
       </c>
@@ -23717,7 +23699,7 @@
         <v>1575</v>
       </c>
       <c r="V220" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y220" t="s">
         <v>1601</v>
@@ -23750,7 +23732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36">
       <c r="A221" t="s">
         <v>255</v>
       </c>
@@ -23806,7 +23788,7 @@
         <v>1575</v>
       </c>
       <c r="V221" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y221" t="s">
         <v>1601</v>
@@ -23839,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36">
       <c r="A222" t="s">
         <v>256</v>
       </c>
@@ -23895,7 +23877,7 @@
         <v>1575</v>
       </c>
       <c r="V222" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y222" t="s">
         <v>1601</v>
@@ -23928,7 +23910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36">
       <c r="A223" t="s">
         <v>257</v>
       </c>
@@ -23972,7 +23954,7 @@
         <v>1575</v>
       </c>
       <c r="V223" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y223" t="s">
         <v>1601</v>
@@ -24005,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36">
       <c r="A224" t="s">
         <v>258</v>
       </c>
@@ -24049,7 +24031,7 @@
         <v>1575</v>
       </c>
       <c r="V224" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y224" t="s">
         <v>1601</v>
@@ -24082,7 +24064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36">
       <c r="A225" t="s">
         <v>259</v>
       </c>
@@ -24138,7 +24120,7 @@
         <v>1575</v>
       </c>
       <c r="V225" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y225" t="s">
         <v>1601</v>
@@ -24171,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36">
       <c r="A226" t="s">
         <v>260</v>
       </c>
@@ -24227,7 +24209,7 @@
         <v>1575</v>
       </c>
       <c r="V226" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y226" t="s">
         <v>1601</v>
@@ -24260,7 +24242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36">
       <c r="A227" t="s">
         <v>261</v>
       </c>
@@ -24316,7 +24298,7 @@
         <v>1575</v>
       </c>
       <c r="V227" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y227" t="s">
         <v>1601</v>
@@ -24349,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -24393,7 +24375,7 @@
         <v>1575</v>
       </c>
       <c r="V228" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y228" t="s">
         <v>1601</v>
@@ -24426,7 +24408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36">
       <c r="A229" t="s">
         <v>263</v>
       </c>
@@ -24482,7 +24464,7 @@
         <v>1575</v>
       </c>
       <c r="V229" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y229" t="s">
         <v>1601</v>
@@ -24515,7 +24497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36">
       <c r="A230" t="s">
         <v>264</v>
       </c>
@@ -24559,7 +24541,7 @@
         <v>1575</v>
       </c>
       <c r="V230" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y230" t="s">
         <v>1601</v>
@@ -24592,7 +24574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36">
       <c r="A231" t="s">
         <v>265</v>
       </c>
@@ -24636,7 +24618,7 @@
         <v>1575</v>
       </c>
       <c r="V231" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y231" t="s">
         <v>1601</v>
@@ -24669,7 +24651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36">
       <c r="A232" t="s">
         <v>266</v>
       </c>
@@ -24713,7 +24695,7 @@
         <v>1575</v>
       </c>
       <c r="V232" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y232" t="s">
         <v>1601</v>
@@ -24746,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36">
       <c r="A233" t="s">
         <v>267</v>
       </c>
@@ -24802,7 +24784,7 @@
         <v>1575</v>
       </c>
       <c r="V233" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y233" t="s">
         <v>1601</v>
@@ -24835,7 +24817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36">
       <c r="A234" t="s">
         <v>268</v>
       </c>
@@ -24891,7 +24873,7 @@
         <v>1575</v>
       </c>
       <c r="V234" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y234" t="s">
         <v>1601</v>
@@ -24924,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36">
       <c r="A235" t="s">
         <v>269</v>
       </c>
@@ -24968,7 +24950,7 @@
         <v>1575</v>
       </c>
       <c r="V235" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y235" t="s">
         <v>1601</v>
@@ -25001,7 +24983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36">
       <c r="A236" t="s">
         <v>270</v>
       </c>
@@ -25045,7 +25027,7 @@
         <v>1575</v>
       </c>
       <c r="V236" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y236" t="s">
         <v>1601</v>
@@ -25078,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36">
       <c r="A237" t="s">
         <v>271</v>
       </c>
@@ -25134,7 +25116,7 @@
         <v>1575</v>
       </c>
       <c r="V237" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y237" t="s">
         <v>1601</v>
@@ -25167,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36">
       <c r="A238" t="s">
         <v>272</v>
       </c>
@@ -25223,7 +25205,7 @@
         <v>1575</v>
       </c>
       <c r="V238" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="Y238" t="s">
         <v>1601</v>
@@ -25256,7 +25238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36">
       <c r="A239" t="s">
         <v>273</v>
       </c>
@@ -25300,7 +25282,7 @@
         <v>1576</v>
       </c>
       <c r="V239" s="2">
-        <v>45042.982534722221</v>
+        <v>45042.98253472222</v>
       </c>
       <c r="Y239" t="s">
         <v>1601</v>
@@ -25333,7 +25315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36">
       <c r="A240" t="s">
         <v>274</v>
       </c>
@@ -25389,7 +25371,7 @@
         <v>1576</v>
       </c>
       <c r="V240" s="2">
-        <v>45042.982534722221</v>
+        <v>45042.98253472222</v>
       </c>
       <c r="Y240" t="s">
         <v>1601</v>
@@ -25422,7 +25404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36">
       <c r="A241" t="s">
         <v>275</v>
       </c>
@@ -25478,7 +25460,7 @@
         <v>1576</v>
       </c>
       <c r="V241" s="2">
-        <v>45042.982534722221</v>
+        <v>45042.98253472222</v>
       </c>
       <c r="Y241" t="s">
         <v>1601</v>
@@ -25511,7 +25493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36">
       <c r="A242" t="s">
         <v>276</v>
       </c>
@@ -25567,40 +25549,40 @@
         <v>1577</v>
       </c>
       <c r="V242" s="2">
-        <v>45043.746307870373</v>
+        <v>45043.74630787037</v>
       </c>
       <c r="Y242" t="s">
         <v>1601</v>
       </c>
       <c r="AB242">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AC242">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AD242">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE242">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ242">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36">
       <c r="A243" t="s">
         <v>277</v>
       </c>
@@ -25656,40 +25638,40 @@
         <v>1577</v>
       </c>
       <c r="V243" s="2">
-        <v>45043.746307870373</v>
+        <v>45043.74630787037</v>
       </c>
       <c r="Y243" t="s">
         <v>1601</v>
       </c>
       <c r="AB243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD243">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE243">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ243">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -25745,40 +25727,40 @@
         <v>1577</v>
       </c>
       <c r="V244" s="2">
-        <v>45043.746307870373</v>
+        <v>45043.74630787037</v>
       </c>
       <c r="Y244" t="s">
         <v>1601</v>
       </c>
       <c r="AB244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD244">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE244">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ244">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36">
       <c r="A245" t="s">
         <v>279</v>
       </c>
@@ -25834,7 +25816,7 @@
         <v>1578</v>
       </c>
       <c r="V245" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y245" t="s">
         <v>1602</v>
@@ -25867,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36">
       <c r="A246" t="s">
         <v>280</v>
       </c>
@@ -25923,7 +25905,7 @@
         <v>1578</v>
       </c>
       <c r="V246" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y246" t="s">
         <v>1602</v>
@@ -25956,7 +25938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36">
       <c r="A247" t="s">
         <v>281</v>
       </c>
@@ -26012,7 +25994,7 @@
         <v>1578</v>
       </c>
       <c r="V247" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y247" t="s">
         <v>1602</v>
@@ -26045,7 +26027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36">
       <c r="A248" t="s">
         <v>282</v>
       </c>
@@ -26101,7 +26083,7 @@
         <v>1578</v>
       </c>
       <c r="V248" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y248" t="s">
         <v>1602</v>
@@ -26134,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36">
       <c r="A249" t="s">
         <v>283</v>
       </c>
@@ -26190,7 +26172,7 @@
         <v>1578</v>
       </c>
       <c r="V249" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y249" t="s">
         <v>1602</v>
@@ -26223,7 +26205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36">
       <c r="A250" t="s">
         <v>284</v>
       </c>
@@ -26279,7 +26261,7 @@
         <v>1578</v>
       </c>
       <c r="V250" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y250" t="s">
         <v>1602</v>
@@ -26312,7 +26294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36">
       <c r="A251" t="s">
         <v>285</v>
       </c>
@@ -26368,7 +26350,7 @@
         <v>1578</v>
       </c>
       <c r="V251" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y251" t="s">
         <v>1602</v>
@@ -26401,7 +26383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36">
       <c r="A252" t="s">
         <v>286</v>
       </c>
@@ -26457,7 +26439,7 @@
         <v>1578</v>
       </c>
       <c r="V252" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y252" t="s">
         <v>1602</v>
@@ -26490,7 +26472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36">
       <c r="A253" t="s">
         <v>287</v>
       </c>
@@ -26546,7 +26528,7 @@
         <v>1578</v>
       </c>
       <c r="V253" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y253" t="s">
         <v>1602</v>
@@ -26579,7 +26561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36">
       <c r="A254" t="s">
         <v>288</v>
       </c>
@@ -26635,7 +26617,7 @@
         <v>1578</v>
       </c>
       <c r="V254" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y254" t="s">
         <v>1602</v>
@@ -26668,7 +26650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36">
       <c r="A255" t="s">
         <v>289</v>
       </c>
@@ -26724,7 +26706,7 @@
         <v>1578</v>
       </c>
       <c r="V255" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y255" t="s">
         <v>1602</v>
@@ -26757,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36">
       <c r="A256" t="s">
         <v>290</v>
       </c>
@@ -26813,7 +26795,7 @@
         <v>1578</v>
       </c>
       <c r="V256" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y256" t="s">
         <v>1602</v>
@@ -26846,7 +26828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36">
       <c r="A257" t="s">
         <v>291</v>
       </c>
@@ -26902,7 +26884,7 @@
         <v>1578</v>
       </c>
       <c r="V257" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y257" t="s">
         <v>1602</v>
@@ -26935,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36">
       <c r="A258" t="s">
         <v>292</v>
       </c>
@@ -26991,7 +26973,7 @@
         <v>1578</v>
       </c>
       <c r="V258" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y258" t="s">
         <v>1602</v>
@@ -27024,7 +27006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36">
       <c r="A259" t="s">
         <v>293</v>
       </c>
@@ -27068,7 +27050,7 @@
         <v>1578</v>
       </c>
       <c r="V259" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y259" t="s">
         <v>1602</v>
@@ -27101,7 +27083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36">
       <c r="A260" t="s">
         <v>294</v>
       </c>
@@ -27145,7 +27127,7 @@
         <v>1578</v>
       </c>
       <c r="V260" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="Y260" t="s">
         <v>1602</v>
@@ -27178,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36">
       <c r="A261" t="s">
         <v>295</v>
       </c>
@@ -27267,7 +27249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36">
       <c r="A262" t="s">
         <v>296</v>
       </c>
@@ -27356,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36">
       <c r="A263" t="s">
         <v>297</v>
       </c>
@@ -27445,7 +27427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36">
       <c r="A264" t="s">
         <v>298</v>
       </c>
@@ -27534,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36">
       <c r="A265" t="s">
         <v>299</v>
       </c>
@@ -27623,7 +27605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36">
       <c r="A266" t="s">
         <v>300</v>
       </c>
@@ -27700,7 +27682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36">
       <c r="A267" t="s">
         <v>301</v>
       </c>
@@ -27789,7 +27771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36">
       <c r="A268" t="s">
         <v>302</v>
       </c>
@@ -27866,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36">
       <c r="A269" t="s">
         <v>303</v>
       </c>
@@ -27955,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36">
       <c r="A270" t="s">
         <v>304</v>
       </c>
@@ -27999,7 +27981,7 @@
         <v>1580</v>
       </c>
       <c r="V270" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y270" t="s">
         <v>1601</v>
@@ -28032,7 +28014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36">
       <c r="A271" t="s">
         <v>305</v>
       </c>
@@ -28088,7 +28070,7 @@
         <v>1580</v>
       </c>
       <c r="V271" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y271" t="s">
         <v>1601</v>
@@ -28121,7 +28103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36">
       <c r="A272" t="s">
         <v>306</v>
       </c>
@@ -28177,7 +28159,7 @@
         <v>1580</v>
       </c>
       <c r="V272" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y272" t="s">
         <v>1601</v>
@@ -28210,7 +28192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36">
       <c r="A273" t="s">
         <v>307</v>
       </c>
@@ -28266,7 +28248,7 @@
         <v>1580</v>
       </c>
       <c r="V273" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y273" t="s">
         <v>1601</v>
@@ -28299,7 +28281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36">
       <c r="A274" t="s">
         <v>308</v>
       </c>
@@ -28355,7 +28337,7 @@
         <v>1580</v>
       </c>
       <c r="V274" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y274" t="s">
         <v>1601</v>
@@ -28388,7 +28370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36">
       <c r="A275" t="s">
         <v>309</v>
       </c>
@@ -28444,7 +28426,7 @@
         <v>1580</v>
       </c>
       <c r="V275" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y275" t="s">
         <v>1601</v>
@@ -28477,7 +28459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36">
       <c r="A276" t="s">
         <v>310</v>
       </c>
@@ -28521,7 +28503,7 @@
         <v>1580</v>
       </c>
       <c r="V276" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y276" t="s">
         <v>1601</v>
@@ -28554,7 +28536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36">
       <c r="A277" t="s">
         <v>311</v>
       </c>
@@ -28610,7 +28592,7 @@
         <v>1580</v>
       </c>
       <c r="V277" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y277" t="s">
         <v>1601</v>
@@ -28643,7 +28625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36">
       <c r="A278" t="s">
         <v>312</v>
       </c>
@@ -28699,7 +28681,7 @@
         <v>1580</v>
       </c>
       <c r="V278" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y278" t="s">
         <v>1601</v>
@@ -28732,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36">
       <c r="A279" t="s">
         <v>313</v>
       </c>
@@ -28788,7 +28770,7 @@
         <v>1580</v>
       </c>
       <c r="V279" s="2">
-        <v>45043.916250000002</v>
+        <v>45043.91625</v>
       </c>
       <c r="Y279" t="s">
         <v>1601</v>
@@ -28821,7 +28803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36">
       <c r="A280" t="s">
         <v>314</v>
       </c>
@@ -28877,7 +28859,7 @@
         <v>1581</v>
       </c>
       <c r="V280" s="2">
-        <v>45044.001712962963</v>
+        <v>45044.00171296296</v>
       </c>
       <c r="Y280" t="s">
         <v>1601</v>
@@ -28910,7 +28892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36">
       <c r="A281" t="s">
         <v>315</v>
       </c>
@@ -28966,7 +28948,7 @@
         <v>1582</v>
       </c>
       <c r="V281" s="2">
-        <v>45044.514421296299</v>
+        <v>45044.5144212963</v>
       </c>
       <c r="Y281" t="s">
         <v>1601</v>
@@ -28999,7 +28981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36">
       <c r="A282" t="s">
         <v>316</v>
       </c>
@@ -29055,7 +29037,7 @@
         <v>1582</v>
       </c>
       <c r="V282" s="2">
-        <v>45044.514421296299</v>
+        <v>45044.5144212963</v>
       </c>
       <c r="Y282" t="s">
         <v>1601</v>
@@ -29088,7 +29070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36">
       <c r="A283" t="s">
         <v>317</v>
       </c>
@@ -29132,7 +29114,7 @@
         <v>1582</v>
       </c>
       <c r="V283" s="2">
-        <v>45044.514421296299</v>
+        <v>45044.5144212963</v>
       </c>
       <c r="Y283" t="s">
         <v>1601</v>
@@ -29165,7 +29147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36">
       <c r="A284" t="s">
         <v>318</v>
       </c>
@@ -29209,7 +29191,7 @@
         <v>1582</v>
       </c>
       <c r="V284" s="2">
-        <v>45044.514421296299</v>
+        <v>45044.5144212963</v>
       </c>
       <c r="Y284" t="s">
         <v>1601</v>
@@ -29242,7 +29224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36">
       <c r="A285" t="s">
         <v>319</v>
       </c>
@@ -29286,7 +29268,7 @@
         <v>1583</v>
       </c>
       <c r="V285" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y285" t="s">
         <v>1601</v>
@@ -29319,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36">
       <c r="A286" t="s">
         <v>320</v>
       </c>
@@ -29363,7 +29345,7 @@
         <v>1583</v>
       </c>
       <c r="V286" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y286" t="s">
         <v>1601</v>
@@ -29396,7 +29378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36">
       <c r="A287" t="s">
         <v>321</v>
       </c>
@@ -29440,7 +29422,7 @@
         <v>1583</v>
       </c>
       <c r="V287" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y287" t="s">
         <v>1601</v>
@@ -29473,7 +29455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36">
       <c r="A288" t="s">
         <v>322</v>
       </c>
@@ -29529,7 +29511,7 @@
         <v>1583</v>
       </c>
       <c r="V288" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y288" t="s">
         <v>1601</v>
@@ -29562,7 +29544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36">
       <c r="A289" t="s">
         <v>323</v>
       </c>
@@ -29618,7 +29600,7 @@
         <v>1583</v>
       </c>
       <c r="V289" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y289" t="s">
         <v>1601</v>
@@ -29651,7 +29633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36">
       <c r="A290" t="s">
         <v>324</v>
       </c>
@@ -29707,7 +29689,7 @@
         <v>1583</v>
       </c>
       <c r="V290" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y290" t="s">
         <v>1601</v>
@@ -29740,7 +29722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36">
       <c r="A291" t="s">
         <v>325</v>
       </c>
@@ -29796,7 +29778,7 @@
         <v>1583</v>
       </c>
       <c r="V291" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y291" t="s">
         <v>1601</v>
@@ -29829,7 +29811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36">
       <c r="A292" t="s">
         <v>326</v>
       </c>
@@ -29885,7 +29867,7 @@
         <v>1583</v>
       </c>
       <c r="V292" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y292" t="s">
         <v>1601</v>
@@ -29918,7 +29900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36">
       <c r="A293" t="s">
         <v>327</v>
       </c>
@@ -29974,7 +29956,7 @@
         <v>1583</v>
       </c>
       <c r="V293" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="Y293" t="s">
         <v>1601</v>
@@ -30007,7 +29989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36">
       <c r="A294" t="s">
         <v>328</v>
       </c>
@@ -30063,7 +30045,7 @@
         <v>1584</v>
       </c>
       <c r="V294" s="2">
-        <v>45044.875173611108</v>
+        <v>45044.87517361111</v>
       </c>
       <c r="Y294" t="s">
         <v>1601</v>
@@ -30096,7 +30078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36">
       <c r="A295" t="s">
         <v>329</v>
       </c>
@@ -30152,7 +30134,7 @@
         <v>1584</v>
       </c>
       <c r="V295" s="2">
-        <v>45044.875173611108</v>
+        <v>45044.87517361111</v>
       </c>
       <c r="Y295" t="s">
         <v>1601</v>
@@ -30185,7 +30167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36">
       <c r="A296" t="s">
         <v>330</v>
       </c>
@@ -30241,7 +30223,7 @@
         <v>1584</v>
       </c>
       <c r="V296" s="2">
-        <v>45044.875173611108</v>
+        <v>45044.87517361111</v>
       </c>
       <c r="Y296" t="s">
         <v>1601</v>
@@ -30274,7 +30256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36">
       <c r="A297" t="s">
         <v>331</v>
       </c>
@@ -30330,7 +30312,7 @@
         <v>1584</v>
       </c>
       <c r="V297" s="2">
-        <v>45044.875173611108</v>
+        <v>45044.87517361111</v>
       </c>
       <c r="Y297" t="s">
         <v>1601</v>
@@ -30363,7 +30345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36">
       <c r="A298" t="s">
         <v>332</v>
       </c>
@@ -30419,7 +30401,7 @@
         <v>1585</v>
       </c>
       <c r="V298" s="2">
-        <v>45044.898946759262</v>
+        <v>45044.89894675926</v>
       </c>
       <c r="Y298" t="s">
         <v>1601</v>
@@ -30452,7 +30434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36">
       <c r="A299" t="s">
         <v>333</v>
       </c>
@@ -30508,7 +30490,7 @@
         <v>1586</v>
       </c>
       <c r="V299" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="Y299" t="s">
         <v>1602</v>
@@ -30541,7 +30523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36">
       <c r="A300" t="s">
         <v>334</v>
       </c>
@@ -30585,7 +30567,7 @@
         <v>1586</v>
       </c>
       <c r="V300" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="Y300" t="s">
         <v>1602</v>
@@ -30618,7 +30600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36">
       <c r="A301" t="s">
         <v>335</v>
       </c>
@@ -30662,7 +30644,7 @@
         <v>1586</v>
       </c>
       <c r="V301" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="Y301" t="s">
         <v>1602</v>
@@ -30695,7 +30677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36">
       <c r="A302" t="s">
         <v>336</v>
       </c>
@@ -30739,7 +30721,7 @@
         <v>1586</v>
       </c>
       <c r="V302" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="Y302" t="s">
         <v>1602</v>
@@ -30772,7 +30754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36">
       <c r="A303" t="s">
         <v>337</v>
       </c>
@@ -30828,7 +30810,7 @@
         <v>1586</v>
       </c>
       <c r="V303" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="Y303" t="s">
         <v>1602</v>
@@ -30861,7 +30843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36">
       <c r="A304" t="s">
         <v>338</v>
       </c>
@@ -30905,7 +30887,7 @@
         <v>1586</v>
       </c>
       <c r="V304" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="Y304" t="s">
         <v>1602</v>
@@ -30938,7 +30920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36">
       <c r="A305" t="s">
         <v>339</v>
       </c>
@@ -30982,7 +30964,7 @@
         <v>1587</v>
       </c>
       <c r="V305" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y305" t="s">
         <v>1601</v>
@@ -31015,7 +30997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36">
       <c r="A306" t="s">
         <v>340</v>
       </c>
@@ -31059,7 +31041,7 @@
         <v>1587</v>
       </c>
       <c r="V306" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y306" t="s">
         <v>1601</v>
@@ -31092,7 +31074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36">
       <c r="A307" t="s">
         <v>341</v>
       </c>
@@ -31136,7 +31118,7 @@
         <v>1587</v>
       </c>
       <c r="V307" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y307" t="s">
         <v>1601</v>
@@ -31169,7 +31151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36">
       <c r="A308" t="s">
         <v>342</v>
       </c>
@@ -31213,7 +31195,7 @@
         <v>1587</v>
       </c>
       <c r="V308" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y308" t="s">
         <v>1601</v>
@@ -31246,7 +31228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36">
       <c r="A309" t="s">
         <v>343</v>
       </c>
@@ -31290,7 +31272,7 @@
         <v>1587</v>
       </c>
       <c r="V309" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y309" t="s">
         <v>1601</v>
@@ -31323,7 +31305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36">
       <c r="A310" t="s">
         <v>344</v>
       </c>
@@ -31367,7 +31349,7 @@
         <v>1587</v>
       </c>
       <c r="V310" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y310" t="s">
         <v>1601</v>
@@ -31400,7 +31382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36">
       <c r="A311" t="s">
         <v>345</v>
       </c>
@@ -31444,7 +31426,7 @@
         <v>1587</v>
       </c>
       <c r="V311" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y311" t="s">
         <v>1601</v>
@@ -31477,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36">
       <c r="A312" t="s">
         <v>346</v>
       </c>
@@ -31521,7 +31503,7 @@
         <v>1587</v>
       </c>
       <c r="V312" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="Y312" t="s">
         <v>1601</v>
@@ -31554,7 +31536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36">
       <c r="A313" t="s">
         <v>347</v>
       </c>
@@ -31643,7 +31625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36">
       <c r="A314" t="s">
         <v>348</v>
       </c>
@@ -31732,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36">
       <c r="A315" t="s">
         <v>349</v>
       </c>
@@ -31821,7 +31803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36">
       <c r="A316" t="s">
         <v>350</v>
       </c>
@@ -31910,7 +31892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36">
       <c r="A317" t="s">
         <v>351</v>
       </c>
@@ -31999,7 +31981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36">
       <c r="A318" t="s">
         <v>352</v>
       </c>
@@ -32088,7 +32070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36">
       <c r="A319" t="s">
         <v>353</v>
       </c>
@@ -32177,7 +32159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36">
       <c r="A320" t="s">
         <v>354</v>
       </c>
@@ -32254,7 +32236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36">
       <c r="A321" t="s">
         <v>355</v>
       </c>
@@ -32343,7 +32325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36">
       <c r="A322" t="s">
         <v>356</v>
       </c>
@@ -32432,7 +32414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36">
       <c r="A323" t="s">
         <v>357</v>
       </c>
@@ -32521,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:36">
       <c r="A324" t="s">
         <v>358</v>
       </c>
@@ -32610,7 +32592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36">
       <c r="A325" t="s">
         <v>359</v>
       </c>
@@ -32699,7 +32681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36">
       <c r="A326" t="s">
         <v>360</v>
       </c>
@@ -32743,7 +32725,7 @@
         <v>1590</v>
       </c>
       <c r="V326" s="2">
-        <v>45045.004791666674</v>
+        <v>45045.00479166667</v>
       </c>
       <c r="Y326" t="s">
         <v>1601</v>
@@ -32776,7 +32758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36">
       <c r="A327" t="s">
         <v>361</v>
       </c>
@@ -32820,7 +32802,7 @@
         <v>1590</v>
       </c>
       <c r="V327" s="2">
-        <v>45045.004791666674</v>
+        <v>45045.00479166667</v>
       </c>
       <c r="Y327" t="s">
         <v>1601</v>
@@ -32853,7 +32835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36">
       <c r="A328" t="s">
         <v>362</v>
       </c>
@@ -32897,7 +32879,7 @@
         <v>1590</v>
       </c>
       <c r="V328" s="2">
-        <v>45045.004791666674</v>
+        <v>45045.00479166667</v>
       </c>
       <c r="Y328" t="s">
         <v>1601</v>
@@ -32930,7 +32912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36">
       <c r="A329" t="s">
         <v>363</v>
       </c>
@@ -32974,7 +32956,7 @@
         <v>1591</v>
       </c>
       <c r="V329" s="2">
-        <v>45045.071967592587</v>
+        <v>45045.07196759259</v>
       </c>
       <c r="Y329" t="s">
         <v>1601</v>
@@ -33007,7 +32989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36">
       <c r="A330" t="s">
         <v>364</v>
       </c>
@@ -33063,7 +33045,7 @@
         <v>1592</v>
       </c>
       <c r="V330" s="2">
-        <v>45045.120833333327</v>
+        <v>45045.12083333333</v>
       </c>
       <c r="Y330" t="s">
         <v>1601</v>
@@ -33096,7 +33078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36">
       <c r="A331" t="s">
         <v>365</v>
       </c>
@@ -33152,7 +33134,7 @@
         <v>1593</v>
       </c>
       <c r="V331" s="2">
-        <v>45045.136759259258</v>
+        <v>45045.13675925926</v>
       </c>
       <c r="Y331" t="s">
         <v>1601</v>
@@ -33185,7 +33167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36">
       <c r="A332" t="s">
         <v>366</v>
       </c>
@@ -33229,7 +33211,7 @@
         <v>1594</v>
       </c>
       <c r="V332" s="2">
-        <v>45045.147962962961</v>
+        <v>45045.14796296296</v>
       </c>
       <c r="Y332" t="s">
         <v>1601</v>
@@ -33262,7 +33244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36">
       <c r="A333" t="s">
         <v>367</v>
       </c>
@@ -33318,7 +33300,7 @@
         <v>1595</v>
       </c>
       <c r="V333" s="2">
-        <v>45045.679583333331</v>
+        <v>45045.67958333333</v>
       </c>
       <c r="Y333" t="s">
         <v>1601</v>
@@ -33351,7 +33333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36">
       <c r="A334" t="s">
         <v>366</v>
       </c>
@@ -33395,7 +33377,7 @@
         <v>1596</v>
       </c>
       <c r="V334" s="2">
-        <v>45046.885046296287</v>
+        <v>45046.88504629629</v>
       </c>
       <c r="Y334" t="s">
         <v>1601</v>
@@ -33428,7 +33410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36">
       <c r="A335" t="s">
         <v>368</v>
       </c>
@@ -33484,7 +33466,7 @@
         <v>1597</v>
       </c>
       <c r="V335" s="2">
-        <v>45048.691724537042</v>
+        <v>45048.69172453704</v>
       </c>
       <c r="Y335" t="s">
         <v>1602</v>
@@ -33517,7 +33499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36">
       <c r="A336" t="s">
         <v>369</v>
       </c>
@@ -33573,7 +33555,7 @@
         <v>1597</v>
       </c>
       <c r="V336" s="2">
-        <v>45048.691724537042</v>
+        <v>45048.69172453704</v>
       </c>
       <c r="Y336" t="s">
         <v>1602</v>
@@ -33606,7 +33588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36">
       <c r="A337" t="s">
         <v>370</v>
       </c>
@@ -33662,7 +33644,7 @@
         <v>1598</v>
       </c>
       <c r="V337" s="2">
-        <v>45058.123055555552</v>
+        <v>45058.12305555555</v>
       </c>
       <c r="Y337" t="s">
         <v>1601</v>
@@ -33695,7 +33677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36">
       <c r="A338" t="s">
         <v>371</v>
       </c>
@@ -33739,7 +33721,7 @@
         <v>1598</v>
       </c>
       <c r="V338" s="2">
-        <v>45058.123055555552</v>
+        <v>45058.12305555555</v>
       </c>
       <c r="Y338" t="s">
         <v>1601</v>
@@ -33772,7 +33754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36">
       <c r="A339" t="s">
         <v>372</v>
       </c>
@@ -33816,7 +33798,7 @@
         <v>1598</v>
       </c>
       <c r="V339" s="2">
-        <v>45058.123055555552</v>
+        <v>45058.12305555555</v>
       </c>
       <c r="Y339" t="s">
         <v>1601</v>
@@ -33849,7 +33831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:36">
       <c r="A340" t="s">
         <v>373</v>
       </c>
@@ -33893,7 +33875,7 @@
         <v>1598</v>
       </c>
       <c r="V340" s="2">
-        <v>45058.123055555552</v>
+        <v>45058.12305555555</v>
       </c>
       <c r="Y340" t="s">
         <v>1601</v>
@@ -33926,7 +33908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36">
       <c r="A341" t="s">
         <v>374</v>
       </c>
@@ -33970,7 +33952,7 @@
         <v>1599</v>
       </c>
       <c r="V341" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y341" t="s">
         <v>1601</v>
@@ -34003,7 +33985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36">
       <c r="A342" t="s">
         <v>375</v>
       </c>
@@ -34059,7 +34041,7 @@
         <v>1599</v>
       </c>
       <c r="V342" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y342" t="s">
         <v>1601</v>
@@ -34092,7 +34074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36">
       <c r="A343" t="s">
         <v>376</v>
       </c>
@@ -34148,7 +34130,7 @@
         <v>1599</v>
       </c>
       <c r="V343" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y343" t="s">
         <v>1601</v>
@@ -34181,7 +34163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36">
       <c r="A344" t="s">
         <v>377</v>
       </c>
@@ -34225,7 +34207,7 @@
         <v>1599</v>
       </c>
       <c r="V344" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y344" t="s">
         <v>1601</v>
@@ -34258,7 +34240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36">
       <c r="A345" t="s">
         <v>378</v>
       </c>
@@ -34314,7 +34296,7 @@
         <v>1599</v>
       </c>
       <c r="V345" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y345" t="s">
         <v>1601</v>
@@ -34347,7 +34329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36">
       <c r="A346" t="s">
         <v>379</v>
       </c>
@@ -34403,7 +34385,7 @@
         <v>1599</v>
       </c>
       <c r="V346" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y346" t="s">
         <v>1601</v>
@@ -34436,7 +34418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36">
       <c r="A347" t="s">
         <v>380</v>
       </c>
@@ -34492,7 +34474,7 @@
         <v>1599</v>
       </c>
       <c r="V347" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y347" t="s">
         <v>1601</v>
@@ -34525,7 +34507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36">
       <c r="A348" t="s">
         <v>381</v>
       </c>
@@ -34581,7 +34563,7 @@
         <v>1599</v>
       </c>
       <c r="V348" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y348" t="s">
         <v>1601</v>
@@ -34614,7 +34596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:36">
       <c r="A349" t="s">
         <v>382</v>
       </c>
@@ -34670,7 +34652,7 @@
         <v>1599</v>
       </c>
       <c r="V349" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y349" t="s">
         <v>1601</v>
@@ -34703,7 +34685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:36">
       <c r="A350" t="s">
         <v>383</v>
       </c>
@@ -34759,7 +34741,7 @@
         <v>1599</v>
       </c>
       <c r="V350" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y350" t="s">
         <v>1601</v>
@@ -34792,7 +34774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36">
       <c r="A351" t="s">
         <v>384</v>
       </c>
@@ -34848,7 +34830,7 @@
         <v>1599</v>
       </c>
       <c r="V351" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y351" t="s">
         <v>1601</v>
@@ -34881,7 +34863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36">
       <c r="A352" t="s">
         <v>199</v>
       </c>
@@ -34937,7 +34919,7 @@
         <v>1599</v>
       </c>
       <c r="V352" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y352" t="s">
         <v>1601</v>
@@ -34970,7 +34952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36">
       <c r="A353" t="s">
         <v>385</v>
       </c>
@@ -35026,7 +35008,7 @@
         <v>1599</v>
       </c>
       <c r="V353" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y353" t="s">
         <v>1601</v>
@@ -35059,7 +35041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36">
       <c r="A354" t="s">
         <v>386</v>
       </c>
@@ -35115,7 +35097,7 @@
         <v>1599</v>
       </c>
       <c r="V354" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y354" t="s">
         <v>1601</v>
@@ -35148,7 +35130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36">
       <c r="A355" t="s">
         <v>387</v>
       </c>
@@ -35204,7 +35186,7 @@
         <v>1599</v>
       </c>
       <c r="V355" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y355" t="s">
         <v>1601</v>
@@ -35237,7 +35219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:36">
       <c r="A356" t="s">
         <v>388</v>
       </c>
@@ -35293,7 +35275,7 @@
         <v>1599</v>
       </c>
       <c r="V356" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y356" t="s">
         <v>1601</v>
@@ -35326,7 +35308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:36">
       <c r="A357" t="s">
         <v>389</v>
       </c>
@@ -35382,7 +35364,7 @@
         <v>1599</v>
       </c>
       <c r="V357" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y357" t="s">
         <v>1601</v>
@@ -35415,7 +35397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:36">
       <c r="A358" t="s">
         <v>390</v>
       </c>
@@ -35471,7 +35453,7 @@
         <v>1599</v>
       </c>
       <c r="V358" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y358" t="s">
         <v>1601</v>
@@ -35504,7 +35486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:36">
       <c r="A359" t="s">
         <v>391</v>
       </c>
@@ -35560,7 +35542,7 @@
         <v>1599</v>
       </c>
       <c r="V359" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y359" t="s">
         <v>1601</v>
@@ -35593,7 +35575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:36">
       <c r="A360" t="s">
         <v>392</v>
       </c>
@@ -35649,7 +35631,7 @@
         <v>1599</v>
       </c>
       <c r="V360" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y360" t="s">
         <v>1601</v>
@@ -35682,7 +35664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:36">
       <c r="A361" t="s">
         <v>393</v>
       </c>
@@ -35726,7 +35708,7 @@
         <v>1599</v>
       </c>
       <c r="V361" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y361" t="s">
         <v>1601</v>
@@ -35759,7 +35741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36">
       <c r="A362" t="s">
         <v>394</v>
       </c>
@@ -35803,7 +35785,7 @@
         <v>1599</v>
       </c>
       <c r="V362" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y362" t="s">
         <v>1601</v>
@@ -35836,7 +35818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36">
       <c r="A363" t="s">
         <v>395</v>
       </c>
@@ -35880,7 +35862,7 @@
         <v>1599</v>
       </c>
       <c r="V363" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y363" t="s">
         <v>1601</v>
@@ -35913,7 +35895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36">
       <c r="A364" t="s">
         <v>396</v>
       </c>
@@ -35957,7 +35939,7 @@
         <v>1599</v>
       </c>
       <c r="V364" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y364" t="s">
         <v>1601</v>
@@ -35990,7 +35972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36">
       <c r="A365" t="s">
         <v>397</v>
       </c>
@@ -36046,7 +36028,7 @@
         <v>1599</v>
       </c>
       <c r="V365" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y365" t="s">
         <v>1601</v>
@@ -36079,7 +36061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36">
       <c r="A366" t="s">
         <v>398</v>
       </c>
@@ -36135,7 +36117,7 @@
         <v>1599</v>
       </c>
       <c r="V366" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y366" t="s">
         <v>1601</v>
@@ -36168,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36">
       <c r="A367" t="s">
         <v>399</v>
       </c>
@@ -36224,7 +36206,7 @@
         <v>1599</v>
       </c>
       <c r="V367" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="Y367" t="s">
         <v>1601</v>
@@ -36257,7 +36239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36">
       <c r="A368" t="s">
         <v>400</v>
       </c>
@@ -36301,7 +36283,7 @@
         <v>1600</v>
       </c>
       <c r="V368" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y368" t="s">
         <v>1601</v>
@@ -36334,7 +36316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36">
       <c r="A369" t="s">
         <v>401</v>
       </c>
@@ -36390,7 +36372,7 @@
         <v>1600</v>
       </c>
       <c r="V369" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y369" t="s">
         <v>1601</v>
@@ -36423,7 +36405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36">
       <c r="A370" t="s">
         <v>402</v>
       </c>
@@ -36479,7 +36461,7 @@
         <v>1600</v>
       </c>
       <c r="V370" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y370" t="s">
         <v>1601</v>
@@ -36512,7 +36494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36">
       <c r="A371" t="s">
         <v>307</v>
       </c>
@@ -36568,7 +36550,7 @@
         <v>1600</v>
       </c>
       <c r="V371" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y371" t="s">
         <v>1601</v>
@@ -36601,7 +36583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36">
       <c r="A372" t="s">
         <v>308</v>
       </c>
@@ -36657,7 +36639,7 @@
         <v>1600</v>
       </c>
       <c r="V372" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y372" t="s">
         <v>1601</v>
@@ -36690,7 +36672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36">
       <c r="A373" t="s">
         <v>309</v>
       </c>
@@ -36746,7 +36728,7 @@
         <v>1600</v>
       </c>
       <c r="V373" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y373" t="s">
         <v>1601</v>
@@ -36779,7 +36761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:36">
       <c r="A374" t="s">
         <v>310</v>
       </c>
@@ -36835,7 +36817,7 @@
         <v>1600</v>
       </c>
       <c r="V374" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y374" t="s">
         <v>1601</v>
@@ -36868,7 +36850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:36">
       <c r="A375" t="s">
         <v>403</v>
       </c>
@@ -36924,7 +36906,7 @@
         <v>1600</v>
       </c>
       <c r="V375" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y375" t="s">
         <v>1601</v>
@@ -36957,7 +36939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:36">
       <c r="A376" t="s">
         <v>404</v>
       </c>
@@ -37013,7 +36995,7 @@
         <v>1600</v>
       </c>
       <c r="V376" s="2">
-        <v>45077.829699074071</v>
+        <v>45077.82969907407</v>
       </c>
       <c r="Y376" t="s">
         <v>1601</v>

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1162,16 +1162,16 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -1278,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -1722,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14">
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -13339,31 +13339,31 @@
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE114" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI114" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="115">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -1040,10 +1040,10 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD5" t="n">
         <v>0.5</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1156,10 +1156,10 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD6" t="n">
         <v>0.5</v>
@@ -1174,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
@@ -1272,10 +1272,10 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD7" t="n">
         <v>0.5</v>
@@ -1290,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -1388,10 +1388,10 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
         <v>0.5</v>
@@ -1406,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -1494,10 +1494,10 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD9" t="n">
         <v>0.5</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1610,10 +1610,10 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD10" t="n">
         <v>0.5</v>
@@ -1628,13 +1628,13 @@
         <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -1716,10 +1716,10 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="n">
         <v>0.5</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12">
@@ -1823,16 +1823,16 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -1939,10 +1939,10 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
         <v>0.5</v>
@@ -1957,13 +1957,13 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14">
@@ -2045,10 +2045,10 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
         <v>0.5</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -2151,10 +2151,10 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -2151,10 +2151,10 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="AC137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD137" t="n">
         <v>0</v>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="AF137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -14403,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="AC138" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD138" t="n">
         <v>0</v>
@@ -14412,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="AF138" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="139">
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="AC139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD139" t="n">
         <v>0</v>
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="AF139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD140" t="n">
         <v>0</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="AF140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="AC141" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD141" t="n">
         <v>0</v>
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="AF141" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="142">

--- a/files/separadas/repeat_p23.xlsx
+++ b/files/separadas/repeat_p23.xlsx
@@ -2069,10 +2069,10 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
@@ -13684,19 +13684,19 @@
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC131" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE131" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AF131" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="132">
@@ -13788,19 +13788,19 @@
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC132" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE132" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AF132" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="133">
@@ -13892,19 +13892,19 @@
       <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC133" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE133" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AF133" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="134">
@@ -14302,7 +14302,7 @@
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC137" t="n">
         <v>1</v>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="AF137" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="138">
@@ -14400,7 +14400,7 @@
       <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC138" t="n">
         <v>1.5</v>
@@ -14412,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="AF138" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="139">
@@ -14504,19 +14504,19 @@
       <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC139" t="n">
         <v>1</v>
       </c>
       <c r="AD139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE139" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AF139" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="140">
@@ -14608,19 +14608,19 @@
       <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC140" t="n">
         <v>1</v>
       </c>
       <c r="AD140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF140" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="141">
@@ -14712,19 +14712,19 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC141" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF141" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -31069,7 +31069,7 @@
         <v>0</v>
       </c>
       <c r="AC305" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD305" t="n">
         <v>0</v>
@@ -31078,7 +31078,7 @@
         <v>0</v>
       </c>
       <c r="AF305" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="306">
@@ -31163,7 +31163,7 @@
         <v>0</v>
       </c>
       <c r="AC306" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD306" t="n">
         <v>0</v>
@@ -31172,7 +31172,7 @@
         <v>0</v>
       </c>
       <c r="AF306" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
@@ -31257,7 +31257,7 @@
         <v>0</v>
       </c>
       <c r="AC307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD307" t="n">
         <v>0</v>
@@ -31266,7 +31266,7 @@
         <v>0</v>
       </c>
       <c r="AF307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
       <c r="AC308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD308" t="n">
         <v>0</v>
@@ -31360,7 +31360,7 @@
         <v>0</v>
       </c>
       <c r="AF308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -31445,7 +31445,7 @@
         <v>0</v>
       </c>
       <c r="AC309" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD309" t="n">
         <v>0</v>
@@ -31454,7 +31454,7 @@
         <v>0</v>
       </c>
       <c r="AF309" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310">
@@ -31539,7 +31539,7 @@
         <v>0</v>
       </c>
       <c r="AC310" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD310" t="n">
         <v>0</v>
@@ -31548,7 +31548,7 @@
         <v>0</v>
       </c>
       <c r="AF310" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="311">
@@ -31633,7 +31633,7 @@
         <v>0</v>
       </c>
       <c r="AC311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD311" t="n">
         <v>0</v>
@@ -31642,7 +31642,7 @@
         <v>0</v>
       </c>
       <c r="AF311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
       <c r="AC312" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD312" t="n">
         <v>0</v>
@@ -31736,7 +31736,7 @@
         <v>0</v>
       </c>
       <c r="AF312" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="313">
@@ -33549,19 +33549,19 @@
       <c r="Z330" t="inlineStr"/>
       <c r="AA330" t="inlineStr"/>
       <c r="AB330" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC330" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE330" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AF330" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="331">
@@ -33747,10 +33747,10 @@
       <c r="Z332" t="inlineStr"/>
       <c r="AA332" t="inlineStr"/>
       <c r="AB332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC332" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD332" t="n">
         <v>0</v>
@@ -33759,7 +33759,7 @@
         <v>0</v>
       </c>
       <c r="AF332" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="333">
